--- a/biology/Histoire de la zoologie et de la botanique/Karlheinz_Senghas/Karlheinz_Senghas.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karlheinz_Senghas/Karlheinz_Senghas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karlheinz Senghas, né le 7 avril 1928 à Stuttgart et mort le 4 février 2004 à Heidelberg, est un botaniste allemand qui fut spécialiste de l'étude des orchidées.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il poursuit sa scolarité dans sa ville natale, puis la famille déménage à Mannheim, où son père est affecté comme militaire. Karlheinz Senghas est lui-même mobilisé à l'âge de dix-sept ans en 1945 en tant que Luftwaffenhelfer. Sa sœur cadette est tuée lors du bombardement de la ville qui détruit la maison familiale et sa mère est gravement blessée. Il est fait prisonnier à la fin de la guerre et libéré à l'automne 1945. Quelques mois plus tard, il passe son baccalauréat (Abitur en allemand). Il poursuit des études de biologie à l'université de Heidelberg entre 1949 et 1954. Il reçoit son titre de docteur en troisième cycle en 1959, sous la direction du professeur Werner Rauh. Ce dernier le fait entrer comme collaborateur à l'Institut de botanique de l'université de Heidelberg et en 1960 il est nommé comme curateur au jardin botanique de Heidelberg dirigé par le professeur Rauh.
 Il épouse en 1956 Irmgard qui lui donne plus tard trois fils.
@@ -545,7 +559,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Orchideen. Handbuch für Orchideenliebhaber, Züchter und Botaniker; Beschreibung, Kultur und Züchtung, 3. Auflage, Verlag Paul Parey.
 Orchideen. Pflanzen der Extreme, Gegensätze und Superlative, Verlag Paul Parey, 1993</t>
@@ -576,7 +592,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Genres d'orchidées
 Senghasia
@@ -584,8 +602,8 @@
 un complexe hybride Senghasara
 un hybride Paphiopedilum: Paphiopedilum roebellini × Vanguard,  Hilmar Doll
 Espèces
-(Orchidaceae) Coryanthes senghasiana G.Gerlach[1]
-(Orchidaceae) Masdevallia senghasiana Luer[2]</t>
+(Orchidaceae) Coryanthes senghasiana G.Gerlach
+(Orchidaceae) Masdevallia senghasiana Luer</t>
         </is>
       </c>
     </row>
